--- a/Code/Results/Cases/Case_2_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.20088578534327</v>
+        <v>10.98786698633496</v>
       </c>
       <c r="C2">
-        <v>7.834050786443216</v>
+        <v>11.40873668613023</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.36143441527456</v>
+        <v>16.81630070964502</v>
       </c>
       <c r="F2">
-        <v>25.27134927072491</v>
+        <v>37.81957802628263</v>
       </c>
       <c r="G2">
-        <v>21.10232511363752</v>
+        <v>31.89896048402708</v>
       </c>
       <c r="H2">
-        <v>9.090112701599173</v>
+        <v>15.26060755254925</v>
       </c>
       <c r="I2">
-        <v>15.1897240636759</v>
+        <v>24.89751567943133</v>
       </c>
       <c r="J2">
-        <v>5.89494085694489</v>
+        <v>8.101608867757367</v>
       </c>
       <c r="K2">
-        <v>11.00014602168066</v>
+        <v>7.953741409376206</v>
       </c>
       <c r="L2">
-        <v>8.045306942655232</v>
+        <v>12.66202326080889</v>
       </c>
       <c r="M2">
-        <v>10.54232363931269</v>
+        <v>15.06648642445345</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.50763712362058</v>
+        <v>23.60958974242201</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.34895437414142</v>
+        <v>10.71307497920611</v>
       </c>
       <c r="C3">
-        <v>7.877153963738535</v>
+        <v>11.42735285340486</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.26399054937033</v>
+        <v>16.83633062534238</v>
       </c>
       <c r="F3">
-        <v>24.9969637591623</v>
+        <v>37.89026433818499</v>
       </c>
       <c r="G3">
-        <v>21.26563442364227</v>
+        <v>32.0507208862321</v>
       </c>
       <c r="H3">
-        <v>9.20254907817918</v>
+        <v>15.31213765193112</v>
       </c>
       <c r="I3">
-        <v>15.42177610785351</v>
+        <v>25.00085692692702</v>
       </c>
       <c r="J3">
-        <v>5.828621057651672</v>
+        <v>8.083166775647323</v>
       </c>
       <c r="K3">
-        <v>10.48075462498965</v>
+        <v>7.708722620615842</v>
       </c>
       <c r="L3">
-        <v>7.874426815358916</v>
+        <v>12.6561361661511</v>
       </c>
       <c r="M3">
-        <v>10.13288735182498</v>
+        <v>15.00994322062159</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.68303062807666</v>
+        <v>23.70499142274831</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.79478316338472</v>
+        <v>10.54175295425</v>
       </c>
       <c r="C4">
-        <v>7.905136852912017</v>
+        <v>11.43954426609782</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.20825001489099</v>
+        <v>16.85087211917502</v>
       </c>
       <c r="F4">
-        <v>24.84563074344398</v>
+        <v>37.94154599784596</v>
       </c>
       <c r="G4">
-        <v>21.38831905560081</v>
+        <v>32.15195989792628</v>
       </c>
       <c r="H4">
-        <v>9.275727886319302</v>
+        <v>15.34576746724592</v>
       </c>
       <c r="I4">
-        <v>15.57271621258679</v>
+        <v>25.06824697332362</v>
       </c>
       <c r="J4">
-        <v>5.787392323310034</v>
+        <v>8.071672928622583</v>
       </c>
       <c r="K4">
-        <v>10.14766277897019</v>
+        <v>7.55298863291219</v>
       </c>
       <c r="L4">
-        <v>7.770456141072675</v>
+        <v>12.65404994108931</v>
       </c>
       <c r="M4">
-        <v>9.875500747968308</v>
+        <v>14.97676604732644</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.80034172483985</v>
+        <v>23.76764214968646</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.56112479700712</v>
+        <v>10.47138122120492</v>
       </c>
       <c r="C5">
-        <v>7.9169199620778</v>
+        <v>11.44470422964406</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.18656963250205</v>
+        <v>16.85736264041309</v>
       </c>
       <c r="F5">
-        <v>24.78823967126942</v>
+        <v>37.96442345338699</v>
       </c>
       <c r="G5">
-        <v>21.44369066401934</v>
+        <v>32.19523703539834</v>
       </c>
       <c r="H5">
-        <v>9.306570539557004</v>
+        <v>15.35997301413989</v>
       </c>
       <c r="I5">
-        <v>15.63630270871256</v>
+        <v>25.09670025477003</v>
       </c>
       <c r="J5">
-        <v>5.770470108843158</v>
+        <v>8.066946908406127</v>
       </c>
       <c r="K5">
-        <v>10.00845761055955</v>
+        <v>7.488256832154329</v>
       </c>
       <c r="L5">
-        <v>7.728376623150429</v>
+        <v>12.65358588842827</v>
       </c>
       <c r="M5">
-        <v>9.769255096564834</v>
+        <v>14.96364215258922</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.85048462011838</v>
+        <v>23.79419739088266</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.52185287368607</v>
+        <v>10.45966535774093</v>
       </c>
       <c r="C6">
-        <v>7.918899434520633</v>
+        <v>11.44557264055857</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.18303221887844</v>
+        <v>16.85847451499153</v>
       </c>
       <c r="F6">
-        <v>24.77896715482511</v>
+        <v>37.96834175107288</v>
       </c>
       <c r="G6">
-        <v>21.45320236950374</v>
+        <v>32.20254512173511</v>
       </c>
       <c r="H6">
-        <v>9.311753095786003</v>
+        <v>15.36236212153825</v>
       </c>
       <c r="I6">
-        <v>15.64698528147053</v>
+        <v>25.10148480256639</v>
       </c>
       <c r="J6">
-        <v>5.767653064110376</v>
+        <v>8.066159627254848</v>
       </c>
       <c r="K6">
-        <v>9.985136522226792</v>
+        <v>7.477433440050328</v>
       </c>
       <c r="L6">
-        <v>7.721408311072002</v>
+        <v>12.65353220100456</v>
       </c>
       <c r="M6">
-        <v>9.751535682557165</v>
+        <v>14.96148710799332</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.85894973038875</v>
+        <v>23.79866875564909</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.79166367817561</v>
+        <v>10.54080601855004</v>
       </c>
       <c r="C7">
-        <v>7.905294228122743</v>
+        <v>11.43961307764949</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.20795343163471</v>
+        <v>16.85095736509524</v>
       </c>
       <c r="F7">
-        <v>24.84483947563917</v>
+        <v>37.94184651783037</v>
       </c>
       <c r="G7">
-        <v>21.38904438403078</v>
+        <v>32.15253537012931</v>
       </c>
       <c r="H7">
-        <v>9.276139729408051</v>
+        <v>15.34595701826247</v>
       </c>
       <c r="I7">
-        <v>15.57356541449407</v>
+        <v>25.06862668915127</v>
       </c>
       <c r="J7">
-        <v>5.787164586248047</v>
+        <v>8.071609361818195</v>
       </c>
       <c r="K7">
-        <v>10.14579930512212</v>
+        <v>7.552120689409023</v>
       </c>
       <c r="L7">
-        <v>7.769887403332653</v>
+        <v>12.65404211718426</v>
       </c>
       <c r="M7">
-        <v>9.87407317493904</v>
+        <v>14.97658743901912</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.80100860751913</v>
+        <v>23.76799613426931</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.91358104740291</v>
+        <v>10.89371455329329</v>
       </c>
       <c r="C8">
-        <v>7.848596757529723</v>
+        <v>11.41499789395062</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.32699090960848</v>
+        <v>16.82274192965385</v>
       </c>
       <c r="F8">
-        <v>25.17316819345615</v>
+        <v>37.84231427159897</v>
       </c>
       <c r="G8">
-        <v>21.15382473783166</v>
+        <v>31.94961231596224</v>
       </c>
       <c r="H8">
-        <v>9.12800846830557</v>
+        <v>15.27796249557113</v>
       </c>
       <c r="I8">
-        <v>15.26794838883343</v>
+        <v>24.93233100204413</v>
       </c>
       <c r="J8">
-        <v>5.872183167519864</v>
+        <v>8.095285772586349</v>
       </c>
       <c r="K8">
-        <v>10.82405752011548</v>
+        <v>7.870392380326176</v>
       </c>
       <c r="L8">
-        <v>7.986220223313283</v>
+        <v>12.65967724426802</v>
       </c>
       <c r="M8">
-        <v>10.40247716093373</v>
+        <v>15.04667589417346</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.56606601387957</v>
+        <v>23.64163885866505</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86792748542684</v>
+        <v>11.56116204078646</v>
       </c>
       <c r="C9">
-        <v>7.74953756661752</v>
+        <v>11.37274345787753</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.59253259115044</v>
+        <v>16.78517582490847</v>
       </c>
       <c r="F9">
-        <v>25.95385837213459</v>
+        <v>37.70971683573292</v>
       </c>
       <c r="G9">
-        <v>20.88226227634983</v>
+        <v>31.61582240571047</v>
       </c>
       <c r="H9">
-        <v>8.871379245341201</v>
+        <v>15.16038481307636</v>
       </c>
       <c r="I9">
-        <v>14.73825029531478</v>
+        <v>24.69625600330485</v>
       </c>
       <c r="J9">
-        <v>6.034592470597254</v>
+        <v>8.140336313813691</v>
       </c>
       <c r="K9">
-        <v>12.03810416952773</v>
+        <v>8.450117924814244</v>
       </c>
       <c r="L9">
-        <v>8.415828005243856</v>
+        <v>12.68277429778993</v>
       </c>
       <c r="M9">
-        <v>11.38546921044968</v>
+        <v>15.1959473802864</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.18558162815656</v>
+        <v>23.42616674034311</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.15553750923136</v>
+        <v>12.03159837008772</v>
       </c>
       <c r="C10">
-        <v>7.684280825178414</v>
+        <v>11.34533585276449</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.80662679811086</v>
+        <v>16.76835787407462</v>
       </c>
       <c r="F10">
-        <v>26.6112457070712</v>
+        <v>37.65051001671667</v>
       </c>
       <c r="G10">
-        <v>20.81491897991791</v>
+        <v>31.40997252001093</v>
       </c>
       <c r="H10">
-        <v>8.704989167069057</v>
+        <v>15.0835641032485</v>
       </c>
       <c r="I10">
-        <v>14.39539122377337</v>
+        <v>24.54176711347469</v>
       </c>
       <c r="J10">
-        <v>6.150927248781211</v>
+        <v>8.172559203607186</v>
       </c>
       <c r="K10">
-        <v>12.85574247252945</v>
+        <v>8.84611885978736</v>
       </c>
       <c r="L10">
-        <v>8.731967750791652</v>
+        <v>12.70697262362397</v>
       </c>
       <c r="M10">
-        <v>12.0687596677542</v>
+        <v>15.31227840929879</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.9607895682254</v>
+        <v>23.28754630787507</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.70951633331618</v>
+        <v>12.24035726780755</v>
       </c>
       <c r="C11">
-        <v>7.656260612696386</v>
+        <v>11.33365064324739</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.9079980942422</v>
+        <v>16.76303628158235</v>
       </c>
       <c r="F11">
-        <v>26.92839272512296</v>
+        <v>37.6318751560532</v>
       </c>
       <c r="G11">
-        <v>20.81656078803002</v>
+        <v>31.3249383510641</v>
       </c>
       <c r="H11">
-        <v>8.634486682100166</v>
+        <v>15.05068394231503</v>
       </c>
       <c r="I11">
-        <v>14.2504576167656</v>
+        <v>24.47558884409499</v>
       </c>
       <c r="J11">
-        <v>6.203130540301355</v>
+        <v>8.187020516055675</v>
       </c>
       <c r="K11">
-        <v>13.21106395457849</v>
+        <v>9.019271339298577</v>
       </c>
       <c r="L11">
-        <v>8.875356383899966</v>
+        <v>12.71952349521793</v>
       </c>
       <c r="M11">
-        <v>12.37008268935044</v>
+        <v>15.36652339389953</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.87181660599786</v>
+        <v>23.22875702930375</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.91476155352119</v>
+        <v>12.31858558531481</v>
       </c>
       <c r="C12">
-        <v>7.645892820049214</v>
+        <v>11.32933780502759</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.94694237101471</v>
+        <v>16.7613548626026</v>
       </c>
       <c r="F12">
-        <v>27.05106851209867</v>
+        <v>37.62601115023874</v>
       </c>
       <c r="G12">
-        <v>20.82211577227725</v>
+        <v>31.29398093199755</v>
       </c>
       <c r="H12">
-        <v>8.608571522539307</v>
+        <v>15.03852952389342</v>
       </c>
       <c r="I12">
-        <v>14.19725571057383</v>
+        <v>24.45111749705848</v>
       </c>
       <c r="J12">
-        <v>6.222789512320436</v>
+        <v>8.19246760242603</v>
       </c>
       <c r="K12">
-        <v>13.34319505444308</v>
+        <v>9.083798788058637</v>
       </c>
       <c r="L12">
-        <v>8.929551352094856</v>
+        <v>12.72449548092914</v>
       </c>
       <c r="M12">
-        <v>12.48274649010033</v>
+        <v>15.38724424336559</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.84016196181758</v>
+        <v>23.20710906208929</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.87075945334261</v>
+        <v>12.30177542167896</v>
       </c>
       <c r="C13">
-        <v>7.648114851554155</v>
+        <v>11.33026167342318</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.93853048877675</v>
+        <v>16.76170216190746</v>
       </c>
       <c r="F13">
-        <v>27.0245338111038</v>
+        <v>37.627221044667</v>
       </c>
       <c r="G13">
-        <v>20.82069540253843</v>
+        <v>31.30059279090989</v>
       </c>
       <c r="H13">
-        <v>8.614117391373947</v>
+        <v>15.04113401245251</v>
       </c>
       <c r="I13">
-        <v>14.20863730496654</v>
+        <v>24.45636165555316</v>
       </c>
       <c r="J13">
-        <v>6.218560554209765</v>
+        <v>8.191295781341278</v>
       </c>
       <c r="K13">
-        <v>13.31484634659428</v>
+        <v>9.069948509565979</v>
       </c>
       <c r="L13">
-        <v>8.9178847211369</v>
+        <v>12.72341496730832</v>
       </c>
       <c r="M13">
-        <v>12.45854743967783</v>
+        <v>15.38277383648231</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.84688662862665</v>
+        <v>23.21174401553589</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.72649266475709</v>
+        <v>12.24681005503905</v>
       </c>
       <c r="C14">
-        <v>7.655402760535157</v>
+        <v>11.33329357940129</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.91119098479126</v>
+        <v>16.76289126827446</v>
       </c>
       <c r="F14">
-        <v>26.93843380072245</v>
+        <v>37.63136882521471</v>
       </c>
       <c r="G14">
-        <v>20.81691727479194</v>
+        <v>31.32236652001845</v>
       </c>
       <c r="H14">
-        <v>8.632338720536829</v>
+        <v>15.04967804979337</v>
       </c>
       <c r="I14">
-        <v>14.24604639123618</v>
+        <v>24.47356377182715</v>
       </c>
       <c r="J14">
-        <v>6.204750119443153</v>
+        <v>8.187469238717783</v>
       </c>
       <c r="K14">
-        <v>13.2219831330535</v>
+        <v>9.024601120890189</v>
       </c>
       <c r="L14">
-        <v>8.879817334258643</v>
+        <v>12.71992816507482</v>
       </c>
       <c r="M14">
-        <v>12.3793808587688</v>
+        <v>15.36822457885331</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.86917076857853</v>
+        <v>23.22696372581953</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.63753556926631</v>
+        <v>12.2130328791856</v>
       </c>
       <c r="C15">
-        <v>7.659898547539481</v>
+        <v>11.33516529452371</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.89451685380264</v>
+        <v>16.76366305885643</v>
       </c>
       <c r="F15">
-        <v>26.88603014241655</v>
+        <v>37.63406474264671</v>
       </c>
       <c r="G15">
-        <v>20.81525410398525</v>
+        <v>31.33586561385487</v>
       </c>
       <c r="H15">
-        <v>8.643602870087456</v>
+        <v>15.05495012894877</v>
       </c>
       <c r="I15">
-        <v>14.26918246695028</v>
+        <v>24.48417724403302</v>
       </c>
       <c r="J15">
-        <v>6.196276423603178</v>
+        <v>8.185121558535489</v>
       </c>
       <c r="K15">
-        <v>13.16478563289295</v>
+        <v>8.99668787547299</v>
       </c>
       <c r="L15">
-        <v>8.856485327723814</v>
+        <v>12.71782086952099</v>
       </c>
       <c r="M15">
-        <v>12.33069945213251</v>
+        <v>15.35933577352141</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.88308969722238</v>
+        <v>23.23636624029739</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.11869731450112</v>
+        <v>12.01784382895831</v>
       </c>
       <c r="C16">
-        <v>7.686145804932395</v>
+        <v>11.34611521925787</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.80008074353573</v>
+        <v>16.76875242143633</v>
       </c>
       <c r="F16">
-        <v>26.59088171825696</v>
+        <v>37.65189478963396</v>
       </c>
       <c r="G16">
-        <v>20.81548622452793</v>
+        <v>31.41570337694095</v>
       </c>
       <c r="H16">
-        <v>8.709704121218628</v>
+        <v>15.0857544286502</v>
       </c>
       <c r="I16">
-        <v>14.40509287982583</v>
+        <v>24.54617446134714</v>
       </c>
       <c r="J16">
-        <v>6.147500670579469</v>
+        <v>8.171610092668882</v>
       </c>
       <c r="K16">
-        <v>12.83218399583803</v>
+        <v>8.834659061652433</v>
       </c>
       <c r="L16">
-        <v>8.722584744443051</v>
+        <v>12.70618322090223</v>
       </c>
       <c r="M16">
-        <v>12.04886960923095</v>
+        <v>15.30875909584527</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.96688217649969</v>
+        <v>23.29147426716264</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.79229454312168</v>
+        <v>11.89670665207093</v>
       </c>
       <c r="C17">
-        <v>7.702676494319559</v>
+        <v>11.35303277880907</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.74315587477128</v>
+        <v>16.77247029920114</v>
       </c>
       <c r="F17">
-        <v>26.41443836995728</v>
+        <v>37.66495809017113</v>
       </c>
       <c r="G17">
-        <v>20.82410440153736</v>
+        <v>31.46688980031216</v>
       </c>
       <c r="H17">
-        <v>8.751608967673805</v>
+        <v>15.10518065266151</v>
       </c>
       <c r="I17">
-        <v>14.49135996301785</v>
+        <v>24.58525730468871</v>
       </c>
       <c r="J17">
-        <v>6.117390046905092</v>
+        <v>8.163270237369815</v>
       </c>
       <c r="K17">
-        <v>12.62386063659637</v>
+        <v>8.733441937446594</v>
       </c>
       <c r="L17">
-        <v>8.640301283057781</v>
+        <v>12.69943725693443</v>
       </c>
       <c r="M17">
-        <v>11.8734845691527</v>
+        <v>15.27806356405439</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.0217767766155</v>
+        <v>23.32637504215113</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.60156465589161</v>
+        <v>11.82654186873956</v>
       </c>
       <c r="C18">
-        <v>7.712341044703966</v>
+        <v>11.35708526899735</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.71078964748708</v>
+        <v>16.77482801360666</v>
       </c>
       <c r="F18">
-        <v>26.31465815444065</v>
+        <v>37.67325293935364</v>
       </c>
       <c r="G18">
-        <v>20.8320820809271</v>
+        <v>31.49714078390981</v>
       </c>
       <c r="H18">
-        <v>8.776197572303792</v>
+        <v>15.11654859017425</v>
       </c>
       <c r="I18">
-        <v>14.54201091393192</v>
+        <v>24.60812261896043</v>
       </c>
       <c r="J18">
-        <v>6.100003976336105</v>
+        <v>8.158454872887795</v>
       </c>
       <c r="K18">
-        <v>12.50247482356619</v>
+        <v>8.674568453805049</v>
       </c>
       <c r="L18">
-        <v>8.592936340486226</v>
+        <v>12.69570255123399</v>
       </c>
       <c r="M18">
-        <v>11.77171625043522</v>
+        <v>15.26053374359739</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.05459314686168</v>
+        <v>23.34685092627165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.53647201538084</v>
+        <v>11.80270336976374</v>
       </c>
       <c r="C19">
-        <v>7.715640083003042</v>
+        <v>11.35847004306059</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.69989592827016</v>
+        <v>16.77566399185476</v>
       </c>
       <c r="F19">
-        <v>26.28116779599948</v>
+        <v>37.67619561448738</v>
       </c>
       <c r="G19">
-        <v>20.83529303762592</v>
+        <v>31.50752218514653</v>
       </c>
       <c r="H19">
-        <v>8.784605278347316</v>
+        <v>15.12043099730045</v>
       </c>
       <c r="I19">
-        <v>14.55933505091241</v>
+        <v>24.61593071777604</v>
       </c>
       <c r="J19">
-        <v>6.094105992372268</v>
+        <v>8.156821318940517</v>
       </c>
       <c r="K19">
-        <v>12.46110818065666</v>
+        <v>8.654523404112531</v>
       </c>
       <c r="L19">
-        <v>8.576894249454666</v>
+        <v>12.69446309344937</v>
       </c>
       <c r="M19">
-        <v>11.73710856549305</v>
+        <v>15.25462032708801</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.06591386294165</v>
+        <v>23.35385272496827</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.82735006936628</v>
+        <v>11.90965313793541</v>
       </c>
       <c r="C20">
-        <v>7.700900550048341</v>
+        <v>11.35228876910113</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.74917687283258</v>
+        <v>16.77205183716743</v>
       </c>
       <c r="F20">
-        <v>26.43304472154887</v>
+        <v>37.66348663329487</v>
       </c>
       <c r="G20">
-        <v>20.82287221906136</v>
+        <v>31.4613570568365</v>
       </c>
       <c r="H20">
-        <v>8.747097568988053</v>
+        <v>15.10309257290582</v>
       </c>
       <c r="I20">
-        <v>14.48206918106459</v>
+        <v>24.58105693474938</v>
       </c>
       <c r="J20">
-        <v>6.120602377549029</v>
+        <v>8.164159949427361</v>
       </c>
       <c r="K20">
-        <v>12.64619910329601</v>
+        <v>8.74428485151706</v>
       </c>
       <c r="L20">
-        <v>8.649064712036541</v>
+        <v>12.70014034714132</v>
       </c>
       <c r="M20">
-        <v>11.89224744021659</v>
+        <v>15.28131825343934</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.01580367048664</v>
+        <v>23.32261820007509</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.7689901119794</v>
+        <v>12.26297761042925</v>
       </c>
       <c r="C21">
-        <v>7.653255505542768</v>
+        <v>11.33239999637655</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.91920626081382</v>
+        <v>16.76253295062287</v>
       </c>
       <c r="F21">
-        <v>26.963653678872</v>
+        <v>37.63011816297126</v>
       </c>
       <c r="G21">
-        <v>20.81789081227531</v>
+        <v>31.31593726617309</v>
       </c>
       <c r="H21">
-        <v>8.626965126961455</v>
+        <v>15.04716041358319</v>
       </c>
       <c r="I21">
-        <v>14.23501200297355</v>
+        <v>24.4684951143729</v>
       </c>
       <c r="J21">
-        <v>6.208809591403673</v>
+        <v>8.188593982904585</v>
       </c>
       <c r="K21">
-        <v>13.24932522747499</v>
+        <v>9.037949287205254</v>
       </c>
       <c r="L21">
-        <v>8.891001768548982</v>
+        <v>12.72094639486691</v>
       </c>
       <c r="M21">
-        <v>12.40267362712317</v>
+        <v>15.37249326822172</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.86256902701901</v>
+        <v>23.22247665503857</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.35799225500249</v>
+        <v>12.48906355731474</v>
       </c>
       <c r="C22">
-        <v>7.623534053601865</v>
+        <v>11.3200547170177</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.03357059189149</v>
+        <v>16.75825657009261</v>
       </c>
       <c r="F22">
-        <v>27.32545588832512</v>
+        <v>37.61526065016931</v>
       </c>
       <c r="G22">
-        <v>20.84352145812675</v>
+        <v>31.22814564172224</v>
       </c>
       <c r="H22">
-        <v>8.553032743794953</v>
+        <v>15.01233401753548</v>
       </c>
       <c r="I22">
-        <v>14.083396905119</v>
+        <v>24.39836193710387</v>
       </c>
       <c r="J22">
-        <v>6.265818545162616</v>
+        <v>8.204393066489462</v>
       </c>
       <c r="K22">
-        <v>13.62938078916284</v>
+        <v>9.223790543678586</v>
       </c>
       <c r="L22">
-        <v>9.048502943848506</v>
+        <v>12.73582094767459</v>
       </c>
       <c r="M22">
-        <v>12.72784345587769</v>
+        <v>15.43312205980613</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.77436214104114</v>
+        <v>23.16060886367435</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.04603624355565</v>
+        <v>12.36886093207277</v>
       </c>
       <c r="C23">
-        <v>7.63926606556767</v>
+        <v>11.32658400497471</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.97224079542763</v>
+        <v>16.76036141475334</v>
       </c>
       <c r="F23">
-        <v>27.13099010832657</v>
+        <v>37.62255478023759</v>
       </c>
       <c r="G23">
-        <v>20.82710373288626</v>
+        <v>31.27433668189676</v>
       </c>
       <c r="H23">
-        <v>8.592059701225937</v>
+        <v>15.0307635231112</v>
       </c>
       <c r="I23">
-        <v>14.16338151042014</v>
+        <v>24.43547944190597</v>
       </c>
       <c r="J23">
-        <v>6.235452229195331</v>
+        <v>8.195976604905439</v>
       </c>
       <c r="K23">
-        <v>13.42783806819097</v>
+        <v>9.125171337915337</v>
       </c>
       <c r="L23">
-        <v>8.964511264885227</v>
+        <v>12.72776621480515</v>
       </c>
       <c r="M23">
-        <v>12.55508608352685</v>
+        <v>15.40067185408525</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.82030314109741</v>
+        <v>23.19330116026159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.81151105128234</v>
+        <v>11.90380165036876</v>
       </c>
       <c r="C24">
-        <v>7.701702953733642</v>
+        <v>11.35262490070722</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.74645365517119</v>
+        <v>16.77224033769643</v>
       </c>
       <c r="F24">
-        <v>26.42462761955994</v>
+        <v>37.66414943500556</v>
       </c>
       <c r="G24">
-        <v>20.82341989506062</v>
+        <v>31.46385584628135</v>
       </c>
       <c r="H24">
-        <v>8.749135627154605</v>
+        <v>15.10403597216284</v>
       </c>
       <c r="I24">
-        <v>14.48626626497403</v>
+        <v>24.58295468823423</v>
       </c>
       <c r="J24">
-        <v>6.119150316235783</v>
+        <v>8.163757774933378</v>
       </c>
       <c r="K24">
-        <v>12.63610491960423</v>
+        <v>8.739384892833035</v>
       </c>
       <c r="L24">
-        <v>8.645102946598776</v>
+        <v>12.69982203244535</v>
       </c>
       <c r="M24">
-        <v>11.8837676594484</v>
+        <v>15.27984644168335</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.01850020683517</v>
+        <v>23.32431538827318</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.36538516384239</v>
+        <v>11.38376670046474</v>
       </c>
       <c r="C25">
-        <v>7.775025151550446</v>
+        <v>11.38353355500325</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.5173119219467</v>
+        <v>16.79344123396785</v>
       </c>
       <c r="F25">
-        <v>25.72792995835094</v>
+        <v>37.7388796678396</v>
       </c>
       <c r="G25">
-        <v>20.93372425964137</v>
+        <v>31.69922524771824</v>
       </c>
       <c r="H25">
-        <v>8.937032823631569</v>
+        <v>15.19051011806086</v>
       </c>
       <c r="I25">
-        <v>14.87372146166037</v>
+        <v>24.75678720641173</v>
       </c>
       <c r="J25">
-        <v>5.991155802017161</v>
+        <v>8.128300157236053</v>
       </c>
       <c r="K25">
-        <v>11.72251529048179</v>
+        <v>8.298355481769621</v>
       </c>
       <c r="L25">
-        <v>8.299325865233556</v>
+        <v>12.67524757026089</v>
       </c>
       <c r="M25">
-        <v>11.12596694877697</v>
+        <v>15.15435461088424</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.2793467861718</v>
+        <v>23.48099962579407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.98786698633496</v>
+        <v>13.20088578534332</v>
       </c>
       <c r="C2">
-        <v>11.40873668613023</v>
+        <v>7.834050786443074</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.81630070964502</v>
+        <v>10.36143441527455</v>
       </c>
       <c r="F2">
-        <v>37.81957802628263</v>
+        <v>25.27134927072487</v>
       </c>
       <c r="G2">
-        <v>31.89896048402708</v>
+        <v>21.10232511363746</v>
       </c>
       <c r="H2">
-        <v>15.26060755254925</v>
+        <v>9.090112701599111</v>
       </c>
       <c r="I2">
-        <v>24.89751567943133</v>
+        <v>15.18972406367588</v>
       </c>
       <c r="J2">
-        <v>8.101608867757367</v>
+        <v>5.894940856944888</v>
       </c>
       <c r="K2">
-        <v>7.953741409376206</v>
+        <v>11.00014602168064</v>
       </c>
       <c r="L2">
-        <v>12.66202326080889</v>
+        <v>8.045306942655216</v>
       </c>
       <c r="M2">
-        <v>15.06648642445345</v>
+        <v>10.54232363931268</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.60958974242201</v>
+        <v>14.50763712362056</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.71307497920611</v>
+        <v>12.34895437414146</v>
       </c>
       <c r="C3">
-        <v>11.42735285340486</v>
+        <v>7.877153963738529</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.83633062534238</v>
+        <v>10.26399054937023</v>
       </c>
       <c r="F3">
-        <v>37.89026433818499</v>
+        <v>24.99696375916238</v>
       </c>
       <c r="G3">
-        <v>32.0507208862321</v>
+        <v>21.26563442364267</v>
       </c>
       <c r="H3">
-        <v>15.31213765193112</v>
+        <v>9.202549078179315</v>
       </c>
       <c r="I3">
-        <v>25.00085692692702</v>
+        <v>15.42177610785368</v>
       </c>
       <c r="J3">
-        <v>8.083166775647323</v>
+        <v>5.828621057651666</v>
       </c>
       <c r="K3">
-        <v>7.708722620615842</v>
+        <v>10.48075462498964</v>
       </c>
       <c r="L3">
-        <v>12.6561361661511</v>
+        <v>7.874426815358808</v>
       </c>
       <c r="M3">
-        <v>15.00994322062159</v>
+        <v>10.13288735182492</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.70499142274831</v>
+        <v>14.68303062807683</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.54175295425</v>
+        <v>11.79478316338474</v>
       </c>
       <c r="C4">
-        <v>11.43954426609782</v>
+        <v>7.905136852911615</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.85087211917502</v>
+        <v>10.20825001489104</v>
       </c>
       <c r="F4">
-        <v>37.94154599784596</v>
+        <v>24.84563074344402</v>
       </c>
       <c r="G4">
-        <v>32.15195989792628</v>
+        <v>21.3883190556007</v>
       </c>
       <c r="H4">
-        <v>15.34576746724592</v>
+        <v>9.275727886319304</v>
       </c>
       <c r="I4">
-        <v>25.06824697332362</v>
+        <v>15.57271621258664</v>
       </c>
       <c r="J4">
-        <v>8.071672928622583</v>
+        <v>5.78739232330997</v>
       </c>
       <c r="K4">
-        <v>7.55298863291219</v>
+        <v>10.14766277897012</v>
       </c>
       <c r="L4">
-        <v>12.65404994108931</v>
+        <v>7.770456141072779</v>
       </c>
       <c r="M4">
-        <v>14.97676604732644</v>
+        <v>9.875500747968346</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.76764214968646</v>
+        <v>14.80034172483979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.47138122120492</v>
+        <v>11.56112479700711</v>
       </c>
       <c r="C5">
-        <v>11.44470422964406</v>
+        <v>7.916919962077662</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.85736264041309</v>
+        <v>10.18656963250206</v>
       </c>
       <c r="F5">
-        <v>37.96442345338699</v>
+        <v>24.7882396712695</v>
       </c>
       <c r="G5">
-        <v>32.19523703539834</v>
+        <v>21.44369066401961</v>
       </c>
       <c r="H5">
-        <v>15.35997301413989</v>
+        <v>9.306570539557008</v>
       </c>
       <c r="I5">
-        <v>25.09670025477003</v>
+        <v>15.6363027087126</v>
       </c>
       <c r="J5">
-        <v>8.066946908406127</v>
+        <v>5.770470108843155</v>
       </c>
       <c r="K5">
-        <v>7.488256832154329</v>
+        <v>10.00845761055954</v>
       </c>
       <c r="L5">
-        <v>12.65358588842827</v>
+        <v>7.728376623150428</v>
       </c>
       <c r="M5">
-        <v>14.96364215258922</v>
+        <v>9.769255096564823</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.79419739088266</v>
+        <v>14.85048462011848</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.45966535774093</v>
+        <v>11.52185287368601</v>
       </c>
       <c r="C6">
-        <v>11.44557264055857</v>
+        <v>7.918899434520769</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.85847451499153</v>
+        <v>10.18303221887839</v>
       </c>
       <c r="F6">
-        <v>37.96834175107288</v>
+        <v>24.77896715482509</v>
       </c>
       <c r="G6">
-        <v>32.20254512173511</v>
+        <v>21.45320236950395</v>
       </c>
       <c r="H6">
-        <v>15.36236212153825</v>
+        <v>9.31175309578594</v>
       </c>
       <c r="I6">
-        <v>25.10148480256639</v>
+        <v>15.64698528147062</v>
       </c>
       <c r="J6">
-        <v>8.066159627254848</v>
+        <v>5.767653064110468</v>
       </c>
       <c r="K6">
-        <v>7.477433440050328</v>
+        <v>9.985136522226759</v>
       </c>
       <c r="L6">
-        <v>12.65353220100456</v>
+        <v>7.721408311071974</v>
       </c>
       <c r="M6">
-        <v>14.96148710799332</v>
+        <v>9.751535682557165</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.79866875564909</v>
+        <v>14.85894973038881</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.54080601855004</v>
+        <v>11.79166367817567</v>
       </c>
       <c r="C7">
-        <v>11.43961307764949</v>
+        <v>7.905294228122604</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.85095736509524</v>
+        <v>10.20795343163455</v>
       </c>
       <c r="F7">
-        <v>37.94184651783037</v>
+        <v>24.84483947563901</v>
       </c>
       <c r="G7">
-        <v>32.15253537012931</v>
+        <v>21.38904438403062</v>
       </c>
       <c r="H7">
-        <v>15.34595701826247</v>
+        <v>9.276139729407991</v>
       </c>
       <c r="I7">
-        <v>25.06862668915127</v>
+        <v>15.57356541449396</v>
       </c>
       <c r="J7">
-        <v>8.071609361818195</v>
+        <v>5.787164586247981</v>
       </c>
       <c r="K7">
-        <v>7.552120689409023</v>
+        <v>10.14579930512216</v>
       </c>
       <c r="L7">
-        <v>12.65404211718426</v>
+        <v>7.769887403332548</v>
       </c>
       <c r="M7">
-        <v>14.97658743901912</v>
+        <v>9.874073174938969</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.76799613426931</v>
+        <v>14.80100860751899</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.89371455329329</v>
+        <v>12.91358104740297</v>
       </c>
       <c r="C8">
-        <v>11.41499789395062</v>
+        <v>7.848596757529718</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.82274192965385</v>
+        <v>10.32699090960853</v>
       </c>
       <c r="F8">
-        <v>37.84231427159897</v>
+        <v>25.17316819345617</v>
       </c>
       <c r="G8">
-        <v>31.94961231596224</v>
+        <v>21.15382473783156</v>
       </c>
       <c r="H8">
-        <v>15.27796249557113</v>
+        <v>9.128008468305573</v>
       </c>
       <c r="I8">
-        <v>24.93233100204413</v>
+        <v>15.26794838883334</v>
       </c>
       <c r="J8">
-        <v>8.095285772586349</v>
+        <v>5.872183167519864</v>
       </c>
       <c r="K8">
-        <v>7.870392380326176</v>
+        <v>10.82405752011547</v>
       </c>
       <c r="L8">
-        <v>12.65967724426802</v>
+        <v>7.986220223313388</v>
       </c>
       <c r="M8">
-        <v>15.04667589417346</v>
+        <v>10.40247716093374</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.64163885866505</v>
+        <v>14.56606601387951</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.56116204078646</v>
+        <v>14.86792748542685</v>
       </c>
       <c r="C9">
-        <v>11.37274345787753</v>
+        <v>7.749537566617515</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.78517582490847</v>
+        <v>10.5925325911504</v>
       </c>
       <c r="F9">
-        <v>37.70971683573292</v>
+        <v>25.95385837213455</v>
       </c>
       <c r="G9">
-        <v>31.61582240571047</v>
+        <v>20.88226227634986</v>
       </c>
       <c r="H9">
-        <v>15.16038481307636</v>
+        <v>8.871379245341275</v>
       </c>
       <c r="I9">
-        <v>24.69625600330485</v>
+        <v>14.73825029531482</v>
       </c>
       <c r="J9">
-        <v>8.140336313813691</v>
+        <v>6.034592470597283</v>
       </c>
       <c r="K9">
-        <v>8.450117924814244</v>
+        <v>12.03810416952772</v>
       </c>
       <c r="L9">
-        <v>12.68277429778993</v>
+        <v>8.415828005243812</v>
       </c>
       <c r="M9">
-        <v>15.1959473802864</v>
+        <v>11.38546921044967</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.42616674034311</v>
+        <v>14.18558162815657</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.03159837008772</v>
+        <v>16.15553750923133</v>
       </c>
       <c r="C10">
-        <v>11.34533585276449</v>
+        <v>7.684280825178948</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.76835787407462</v>
+        <v>10.80662679811095</v>
       </c>
       <c r="F10">
-        <v>37.65051001671667</v>
+        <v>26.61124570707123</v>
       </c>
       <c r="G10">
-        <v>31.40997252001093</v>
+        <v>20.81491897991789</v>
       </c>
       <c r="H10">
-        <v>15.0835641032485</v>
+        <v>8.704989167069058</v>
       </c>
       <c r="I10">
-        <v>24.54176711347469</v>
+        <v>14.39539122377347</v>
       </c>
       <c r="J10">
-        <v>8.172559203607186</v>
+        <v>6.15092724878118</v>
       </c>
       <c r="K10">
-        <v>8.84611885978736</v>
+        <v>12.85574247252951</v>
       </c>
       <c r="L10">
-        <v>12.70697262362397</v>
+        <v>8.731967750791576</v>
       </c>
       <c r="M10">
-        <v>15.31227840929879</v>
+        <v>12.0687596677542</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.28754630787507</v>
+        <v>13.96078956822534</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.24035726780755</v>
+        <v>16.70951633331616</v>
       </c>
       <c r="C11">
-        <v>11.33365064324739</v>
+        <v>7.656260612696519</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.76303628158235</v>
+        <v>10.9079980942422</v>
       </c>
       <c r="F11">
-        <v>37.6318751560532</v>
+        <v>26.92839272512304</v>
       </c>
       <c r="G11">
-        <v>31.3249383510641</v>
+        <v>20.81656078803023</v>
       </c>
       <c r="H11">
-        <v>15.05068394231503</v>
+        <v>8.63448668210023</v>
       </c>
       <c r="I11">
-        <v>24.47558884409499</v>
+        <v>14.25045761676572</v>
       </c>
       <c r="J11">
-        <v>8.187020516055675</v>
+        <v>6.203130540301352</v>
       </c>
       <c r="K11">
-        <v>9.019271339298577</v>
+        <v>13.21106395457847</v>
       </c>
       <c r="L11">
-        <v>12.71952349521793</v>
+        <v>8.875356383899952</v>
       </c>
       <c r="M11">
-        <v>15.36652339389953</v>
+        <v>12.37008268935044</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.22875702930375</v>
+        <v>13.87181660599798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.31858558531481</v>
+        <v>16.91476155352119</v>
       </c>
       <c r="C12">
-        <v>11.32933780502759</v>
+        <v>7.645892820049608</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.7613548626026</v>
+        <v>10.94694237101488</v>
       </c>
       <c r="F12">
-        <v>37.62601115023874</v>
+        <v>27.05106851209881</v>
       </c>
       <c r="G12">
-        <v>31.29398093199755</v>
+        <v>20.8221157722772</v>
       </c>
       <c r="H12">
-        <v>15.03852952389342</v>
+        <v>8.608571522539268</v>
       </c>
       <c r="I12">
-        <v>24.45111749705848</v>
+        <v>14.19725571057394</v>
       </c>
       <c r="J12">
-        <v>8.19246760242603</v>
+        <v>6.222789512320492</v>
       </c>
       <c r="K12">
-        <v>9.083798788058637</v>
+        <v>13.34319505444312</v>
       </c>
       <c r="L12">
-        <v>12.72449548092914</v>
+        <v>8.929551352094874</v>
       </c>
       <c r="M12">
-        <v>15.38724424336559</v>
+        <v>12.48274649010035</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.20710906208929</v>
+        <v>13.84016196181755</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.30177542167896</v>
+        <v>16.87075945334252</v>
       </c>
       <c r="C13">
-        <v>11.33026167342318</v>
+        <v>7.648114851554288</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.76170216190746</v>
+        <v>10.93853048877671</v>
       </c>
       <c r="F13">
-        <v>37.627221044667</v>
+        <v>27.02453381110384</v>
       </c>
       <c r="G13">
-        <v>31.30059279090989</v>
+        <v>20.82069540253847</v>
       </c>
       <c r="H13">
-        <v>15.04113401245251</v>
+        <v>8.614117391373989</v>
       </c>
       <c r="I13">
-        <v>24.45636165555316</v>
+        <v>14.20863730496661</v>
       </c>
       <c r="J13">
-        <v>8.191295781341278</v>
+        <v>6.218560554209706</v>
       </c>
       <c r="K13">
-        <v>9.069948509565979</v>
+        <v>13.31484634659417</v>
       </c>
       <c r="L13">
-        <v>12.72341496730832</v>
+        <v>8.917884721136838</v>
       </c>
       <c r="M13">
-        <v>15.38277383648231</v>
+        <v>12.45854743967784</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.21174401553589</v>
+        <v>13.8468866286267</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.24681005503905</v>
+        <v>16.72649266475705</v>
       </c>
       <c r="C14">
-        <v>11.33329357940129</v>
+        <v>7.655402760535557</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.76289126827446</v>
+        <v>10.91119098479134</v>
       </c>
       <c r="F14">
-        <v>37.63136882521471</v>
+        <v>26.93843380072253</v>
       </c>
       <c r="G14">
-        <v>31.32236652001845</v>
+        <v>20.81691727479188</v>
       </c>
       <c r="H14">
-        <v>15.04967804979337</v>
+        <v>8.632338720536829</v>
       </c>
       <c r="I14">
-        <v>24.47356377182715</v>
+        <v>14.24604639123624</v>
       </c>
       <c r="J14">
-        <v>8.187469238717783</v>
+        <v>6.204750119443125</v>
       </c>
       <c r="K14">
-        <v>9.024601120890189</v>
+        <v>13.2219831330535</v>
       </c>
       <c r="L14">
-        <v>12.71992816507482</v>
+        <v>8.879817334258647</v>
       </c>
       <c r="M14">
-        <v>15.36822457885331</v>
+        <v>12.37938085876884</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.22696372581953</v>
+        <v>13.86917076857849</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.2130328791856</v>
+        <v>16.63753556926636</v>
       </c>
       <c r="C15">
-        <v>11.33516529452371</v>
+        <v>7.659898547539351</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.76366305885643</v>
+        <v>10.89451685380266</v>
       </c>
       <c r="F15">
-        <v>37.63406474264671</v>
+        <v>26.88603014241654</v>
       </c>
       <c r="G15">
-        <v>31.33586561385487</v>
+        <v>20.81525410398501</v>
       </c>
       <c r="H15">
-        <v>15.05495012894877</v>
+        <v>8.643602870087456</v>
       </c>
       <c r="I15">
-        <v>24.48417724403302</v>
+        <v>14.2691824669502</v>
       </c>
       <c r="J15">
-        <v>8.185121558535489</v>
+        <v>6.196276423603145</v>
       </c>
       <c r="K15">
-        <v>8.99668787547299</v>
+        <v>13.16478563289301</v>
       </c>
       <c r="L15">
-        <v>12.71782086952099</v>
+        <v>8.856485327723842</v>
       </c>
       <c r="M15">
-        <v>15.35933577352141</v>
+        <v>12.3306994521325</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.23636624029739</v>
+        <v>13.8830896972223</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.01784382895831</v>
+        <v>16.11869731450112</v>
       </c>
       <c r="C16">
-        <v>11.34611521925787</v>
+        <v>7.686145804932523</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.76875242143633</v>
+        <v>10.8000807435357</v>
       </c>
       <c r="F16">
-        <v>37.65189478963396</v>
+        <v>26.59088171825703</v>
       </c>
       <c r="G16">
-        <v>31.41570337694095</v>
+        <v>20.81548622452806</v>
       </c>
       <c r="H16">
-        <v>15.0857544286502</v>
+        <v>8.709704121218703</v>
       </c>
       <c r="I16">
-        <v>24.54617446134714</v>
+        <v>14.40509287982586</v>
       </c>
       <c r="J16">
-        <v>8.171610092668882</v>
+        <v>6.147500670579427</v>
       </c>
       <c r="K16">
-        <v>8.834659061652433</v>
+        <v>12.83218399583802</v>
       </c>
       <c r="L16">
-        <v>12.70618322090223</v>
+        <v>8.722584744443049</v>
       </c>
       <c r="M16">
-        <v>15.30875909584527</v>
+        <v>12.04886960923094</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.29147426716264</v>
+        <v>13.96688217649974</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.89670665207093</v>
+        <v>15.79229454312174</v>
       </c>
       <c r="C17">
-        <v>11.35303277880907</v>
+        <v>7.70267649431943</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.77247029920114</v>
+        <v>10.74315587477134</v>
       </c>
       <c r="F17">
-        <v>37.66495809017113</v>
+        <v>26.41443836995728</v>
       </c>
       <c r="G17">
-        <v>31.46688980031216</v>
+        <v>20.82410440153728</v>
       </c>
       <c r="H17">
-        <v>15.10518065266151</v>
+        <v>8.751608967673819</v>
       </c>
       <c r="I17">
-        <v>24.58525730468871</v>
+        <v>14.49135996301777</v>
       </c>
       <c r="J17">
-        <v>8.163270237369815</v>
+        <v>6.11739004690509</v>
       </c>
       <c r="K17">
-        <v>8.733441937446594</v>
+        <v>12.62386063659639</v>
       </c>
       <c r="L17">
-        <v>12.69943725693443</v>
+        <v>8.640301283057864</v>
       </c>
       <c r="M17">
-        <v>15.27806356405439</v>
+        <v>11.87348456915271</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.32637504215113</v>
+        <v>14.02177677661546</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.82654186873956</v>
+        <v>15.60156465589158</v>
       </c>
       <c r="C18">
-        <v>11.35708526899735</v>
+        <v>7.71234104470396</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.77482801360666</v>
+        <v>10.71078964748703</v>
       </c>
       <c r="F18">
-        <v>37.67325293935364</v>
+        <v>26.31465815444066</v>
       </c>
       <c r="G18">
-        <v>31.49714078390981</v>
+        <v>20.83208208092713</v>
       </c>
       <c r="H18">
-        <v>15.11654859017425</v>
+        <v>8.776197572303799</v>
       </c>
       <c r="I18">
-        <v>24.60812261896043</v>
+        <v>14.54201091393193</v>
       </c>
       <c r="J18">
-        <v>8.158454872887795</v>
+        <v>6.100003976336041</v>
       </c>
       <c r="K18">
-        <v>8.674568453805049</v>
+        <v>12.50247482356615</v>
       </c>
       <c r="L18">
-        <v>12.69570255123399</v>
+        <v>8.592936340486178</v>
       </c>
       <c r="M18">
-        <v>15.26053374359739</v>
+        <v>11.77171625043522</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.34685092627165</v>
+        <v>14.05459314686169</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.80270336976374</v>
+        <v>15.53647201538082</v>
       </c>
       <c r="C19">
-        <v>11.35847004306059</v>
+        <v>7.715640083003173</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.77566399185476</v>
+        <v>10.69989592827007</v>
       </c>
       <c r="F19">
-        <v>37.67619561448738</v>
+        <v>26.28116779599943</v>
       </c>
       <c r="G19">
-        <v>31.50752218514653</v>
+        <v>20.83529303762574</v>
       </c>
       <c r="H19">
-        <v>15.12043099730045</v>
+        <v>8.784605278347316</v>
       </c>
       <c r="I19">
-        <v>24.61593071777604</v>
+        <v>14.55933505091242</v>
       </c>
       <c r="J19">
-        <v>8.156821318940517</v>
+        <v>6.094105992372207</v>
       </c>
       <c r="K19">
-        <v>8.654523404112531</v>
+        <v>12.46110818065667</v>
       </c>
       <c r="L19">
-        <v>12.69446309344937</v>
+        <v>8.576894249454565</v>
       </c>
       <c r="M19">
-        <v>15.25462032708801</v>
+        <v>11.73710856549303</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.35385272496827</v>
+        <v>14.0659138629416</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.90965313793541</v>
+        <v>15.82735006936624</v>
       </c>
       <c r="C20">
-        <v>11.35228876910113</v>
+        <v>7.700900550048591</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.77205183716743</v>
+        <v>10.74917687283264</v>
       </c>
       <c r="F20">
-        <v>37.66348663329487</v>
+        <v>26.43304472154903</v>
       </c>
       <c r="G20">
-        <v>31.4613570568365</v>
+        <v>20.82287221906151</v>
       </c>
       <c r="H20">
-        <v>15.10309257290582</v>
+        <v>8.747097568988115</v>
       </c>
       <c r="I20">
-        <v>24.58105693474938</v>
+        <v>14.48206918106474</v>
       </c>
       <c r="J20">
-        <v>8.164159949427361</v>
+        <v>6.120602377549059</v>
       </c>
       <c r="K20">
-        <v>8.74428485151706</v>
+        <v>12.64619910329596</v>
       </c>
       <c r="L20">
-        <v>12.70014034714132</v>
+        <v>8.649064712036568</v>
       </c>
       <c r="M20">
-        <v>15.28131825343934</v>
+        <v>11.89224744021662</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.32261820007509</v>
+        <v>14.01580367048677</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.26297761042925</v>
+        <v>16.76899011197938</v>
       </c>
       <c r="C21">
-        <v>11.33239999637655</v>
+        <v>7.653255505542772</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.76253295062287</v>
+        <v>10.91920626081378</v>
       </c>
       <c r="F21">
-        <v>37.63011816297126</v>
+        <v>26.963653678872</v>
       </c>
       <c r="G21">
-        <v>31.31593726617309</v>
+        <v>20.81789081227531</v>
       </c>
       <c r="H21">
-        <v>15.04716041358319</v>
+        <v>8.626965126961512</v>
       </c>
       <c r="I21">
-        <v>24.4684951143729</v>
+        <v>14.23501200297361</v>
       </c>
       <c r="J21">
-        <v>8.188593982904585</v>
+        <v>6.208809591403665</v>
       </c>
       <c r="K21">
-        <v>9.037949287205254</v>
+        <v>13.24932522747499</v>
       </c>
       <c r="L21">
-        <v>12.72094639486691</v>
+        <v>8.891001768548973</v>
       </c>
       <c r="M21">
-        <v>15.37249326822172</v>
+        <v>12.40267362712317</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.22247665503857</v>
+        <v>13.86256902701907</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.48906355731474</v>
+        <v>17.35799225500251</v>
       </c>
       <c r="C22">
-        <v>11.3200547170177</v>
+        <v>7.623534053601611</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.75825657009261</v>
+        <v>11.0335705918915</v>
       </c>
       <c r="F22">
-        <v>37.61526065016931</v>
+        <v>27.32545588832516</v>
       </c>
       <c r="G22">
-        <v>31.22814564172224</v>
+        <v>20.84352145812668</v>
       </c>
       <c r="H22">
-        <v>15.01233401753548</v>
+        <v>8.55303274379496</v>
       </c>
       <c r="I22">
-        <v>24.39836193710387</v>
+        <v>14.08339690511892</v>
       </c>
       <c r="J22">
-        <v>8.204393066489462</v>
+        <v>6.265818545162591</v>
       </c>
       <c r="K22">
-        <v>9.223790543678586</v>
+        <v>13.62938078916284</v>
       </c>
       <c r="L22">
-        <v>12.73582094767459</v>
+        <v>9.04850294384852</v>
       </c>
       <c r="M22">
-        <v>15.43312205980613</v>
+        <v>12.72784345587769</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.16060886367435</v>
+        <v>13.77436214104112</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.36886093207277</v>
+        <v>17.04603624355565</v>
       </c>
       <c r="C23">
-        <v>11.32658400497471</v>
+        <v>7.639266065568193</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.76036141475334</v>
+        <v>10.97224079542779</v>
       </c>
       <c r="F23">
-        <v>37.62255478023759</v>
+        <v>27.13099010832671</v>
       </c>
       <c r="G23">
-        <v>31.27433668189676</v>
+        <v>20.82710373288616</v>
       </c>
       <c r="H23">
-        <v>15.0307635231112</v>
+        <v>8.592059701226013</v>
       </c>
       <c r="I23">
-        <v>24.43547944190597</v>
+        <v>14.16338151042019</v>
       </c>
       <c r="J23">
-        <v>8.195976604905439</v>
+        <v>6.235452229195328</v>
       </c>
       <c r="K23">
-        <v>9.125171337915337</v>
+        <v>13.42783806819102</v>
       </c>
       <c r="L23">
-        <v>12.72776621480515</v>
+        <v>8.964511264885259</v>
       </c>
       <c r="M23">
-        <v>15.40067185408525</v>
+        <v>12.55508608352686</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.19330116026159</v>
+        <v>13.82030314109741</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.90380165036876</v>
+        <v>15.81151105128239</v>
       </c>
       <c r="C24">
-        <v>11.35262490070722</v>
+        <v>7.70170295373338</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.77224033769643</v>
+        <v>10.74645365517113</v>
       </c>
       <c r="F24">
-        <v>37.66414943500556</v>
+        <v>26.42462761955985</v>
       </c>
       <c r="G24">
-        <v>31.46385584628135</v>
+        <v>20.8234198950605</v>
       </c>
       <c r="H24">
-        <v>15.10403597216284</v>
+        <v>8.749135627154553</v>
       </c>
       <c r="I24">
-        <v>24.58295468823423</v>
+        <v>14.48626626497387</v>
       </c>
       <c r="J24">
-        <v>8.163757774933378</v>
+        <v>6.119150316235751</v>
       </c>
       <c r="K24">
-        <v>8.739384892833035</v>
+        <v>12.63610491960426</v>
       </c>
       <c r="L24">
-        <v>12.69982203244535</v>
+        <v>8.645102946598779</v>
       </c>
       <c r="M24">
-        <v>15.27984644168335</v>
+        <v>11.88376765944837</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.32431538827318</v>
+        <v>14.01850020683505</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.38376670046474</v>
+        <v>14.3653851638424</v>
       </c>
       <c r="C25">
-        <v>11.38353355500325</v>
+        <v>7.775025151550443</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.79344123396785</v>
+        <v>10.51731192194666</v>
       </c>
       <c r="F25">
-        <v>37.7388796678396</v>
+        <v>25.72792995835092</v>
       </c>
       <c r="G25">
-        <v>31.69922524771824</v>
+        <v>20.93372425964142</v>
       </c>
       <c r="H25">
-        <v>15.19051011806086</v>
+        <v>8.93703282363151</v>
       </c>
       <c r="I25">
-        <v>24.75678720641173</v>
+        <v>14.87372146166032</v>
       </c>
       <c r="J25">
-        <v>8.128300157236053</v>
+        <v>5.991155802017095</v>
       </c>
       <c r="K25">
-        <v>8.298355481769621</v>
+        <v>11.72251529048178</v>
       </c>
       <c r="L25">
-        <v>12.67524757026089</v>
+        <v>8.299325865233509</v>
       </c>
       <c r="M25">
-        <v>15.15435461088424</v>
+        <v>11.12596694877696</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.48099962579407</v>
+        <v>14.27934678617176</v>
       </c>
     </row>
   </sheetData>
